--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -16,7 +16,7 @@
   <calcPr calcId="0"/>
   <oleSize ref="A1:M13"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>name</t>
   </si>
@@ -183,12 +183,19 @@
   </si>
   <si>
     <t>pan1234417</t>
+  </si>
+  <si>
+    <t>pan1234481</t>
+  </si>
+  <si>
+    <t>pan1234371</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -524,28 +531,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.0"/>
+    <col min="2" max="2" customWidth="true" width="18.109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -553,15 +560,15 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -569,15 +576,15 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>52</v>
+      <c r="B6" t="s" s="0">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -585,39 +592,39 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -625,23 +632,23 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -649,15 +656,15 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -679,23 +686,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.6640625"/>
+    <col min="2" max="2" customWidth="true" width="17.77734375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>34</v>
       </c>
     </row>
@@ -703,7 +710,7 @@
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>36</v>
       </c>
     </row>
@@ -722,20 +729,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.0"/>
+    <col min="2" max="2" customWidth="true" width="17.44140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -743,15 +750,15 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -759,7 +766,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -781,15 +788,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.88671875"/>
+    <col min="2" max="2" customWidth="true" width="17.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>46</v>
       </c>
     </row>
@@ -813,7 +820,7 @@
       <c r="A4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>25</v>
       </c>
     </row>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>name</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>pan1234371</t>
+  </si>
+  <si>
+    <t>pan1234374</t>
+  </si>
+  <si>
+    <t>pan123430</t>
   </si>
 </sst>
 </file>
@@ -580,7 +586,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2">

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>name</t>
   </si>
@@ -189,12 +189,6 @@
   </si>
   <si>
     <t>pan1234371</t>
-  </si>
-  <si>
-    <t>pan1234374</t>
-  </si>
-  <si>
-    <t>pan123430</t>
   </si>
 </sst>
 </file>
@@ -586,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2">
